--- a/TemplateEfficiency.xlsx
+++ b/TemplateEfficiency.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\ExportTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="18840" windowHeight="6765" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="18840" windowHeight="6765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="time table" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'time table'!$A$4:$BU$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'time table'!$B$1:$BD$72</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1436,6 +1441,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1462,12 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1479,7 +1484,7 @@
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="표준 2" xfId="6"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="408">
     <dxf>
       <fill>
         <patternFill>
@@ -2905,6 +2910,1434 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF006600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2913,6 +4346,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2961,7 +4397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2996,7 +4432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3208,10 +4644,10 @@
   <dimension ref="A1:BY86"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BE4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BI4" sqref="BI1:BI1048576"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -3289,249 +4725,249 @@
     <row r="1" spans="1:74" ht="44.25" customHeight="1" thickBot="1">
       <c r="A1" s="55"/>
       <c r="B1" s="102"/>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="175"/>
-      <c r="AN1" s="175"/>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="175"/>
-      <c r="AR1" s="175"/>
-      <c r="AS1" s="175"/>
-      <c r="AT1" s="175"/>
-      <c r="AU1" s="175"/>
-      <c r="AV1" s="175"/>
-      <c r="AW1" s="175"/>
-      <c r="AX1" s="175"/>
-      <c r="AY1" s="175"/>
-      <c r="AZ1" s="175"/>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="175"/>
-      <c r="BC1" s="175"/>
-      <c r="BD1" s="175"/>
-      <c r="BE1" s="175"/>
-      <c r="BF1" s="175"/>
-      <c r="BG1" s="175"/>
-      <c r="BH1" s="175"/>
-      <c r="BI1" s="175"/>
-      <c r="BJ1" s="175"/>
-      <c r="BK1" s="175"/>
-      <c r="BL1" s="175"/>
-      <c r="BM1" s="175"/>
-      <c r="BN1" s="175"/>
-      <c r="BO1" s="175"/>
-      <c r="BP1" s="175"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="177"/>
+      <c r="AJ1" s="177"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="177"/>
+      <c r="AN1" s="177"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
+      <c r="AR1" s="177"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="177"/>
+      <c r="AU1" s="177"/>
+      <c r="AV1" s="177"/>
+      <c r="AW1" s="177"/>
+      <c r="AX1" s="177"/>
+      <c r="AY1" s="177"/>
+      <c r="AZ1" s="177"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="177"/>
+      <c r="BC1" s="177"/>
+      <c r="BD1" s="177"/>
+      <c r="BE1" s="177"/>
+      <c r="BF1" s="177"/>
+      <c r="BG1" s="177"/>
+      <c r="BH1" s="177"/>
+      <c r="BI1" s="177"/>
+      <c r="BJ1" s="177"/>
+      <c r="BK1" s="177"/>
+      <c r="BL1" s="177"/>
+      <c r="BM1" s="177"/>
+      <c r="BN1" s="177"/>
+      <c r="BO1" s="177"/>
+      <c r="BP1" s="177"/>
     </row>
     <row r="2" spans="1:74">
       <c r="A2" s="55"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="176" t="s">
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="176" t="s">
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="176" t="s">
+      <c r="P2" s="179"/>
+      <c r="Q2" s="179"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="178" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="176" t="s">
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="176" t="s">
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="176" t="s">
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="178"/>
-      <c r="AY2" s="176"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="177"/>
-      <c r="BB2" s="177"/>
-      <c r="BC2" s="177"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="176"/>
-      <c r="BF2" s="177"/>
-      <c r="BG2" s="177"/>
-      <c r="BH2" s="177"/>
-      <c r="BI2" s="177"/>
-      <c r="BJ2" s="178"/>
-      <c r="BK2" s="176"/>
-      <c r="BL2" s="177"/>
-      <c r="BM2" s="177"/>
-      <c r="BN2" s="177"/>
-      <c r="BO2" s="177"/>
-      <c r="BP2" s="178"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="179"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="179"/>
+      <c r="AV2" s="179"/>
+      <c r="AW2" s="179"/>
+      <c r="AX2" s="180"/>
+      <c r="AY2" s="178"/>
+      <c r="AZ2" s="179"/>
+      <c r="BA2" s="179"/>
+      <c r="BB2" s="179"/>
+      <c r="BC2" s="179"/>
+      <c r="BD2" s="180"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="179"/>
+      <c r="BG2" s="179"/>
+      <c r="BH2" s="179"/>
+      <c r="BI2" s="179"/>
+      <c r="BJ2" s="180"/>
+      <c r="BK2" s="178"/>
+      <c r="BL2" s="179"/>
+      <c r="BM2" s="179"/>
+      <c r="BN2" s="179"/>
+      <c r="BO2" s="179"/>
+      <c r="BP2" s="180"/>
       <c r="BQ2" s="57"/>
     </row>
     <row r="3" spans="1:74" ht="13.5" thickBot="1">
       <c r="A3" s="55"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="179" t="s">
+      <c r="C3" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="179" t="s">
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="179" t="s">
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="179" t="s">
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="180"/>
-      <c r="W3" s="180"/>
-      <c r="X3" s="180"/>
-      <c r="Y3" s="180"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="179" t="s">
+      <c r="V3" s="182"/>
+      <c r="W3" s="182"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="180"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="179" t="s">
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="180"/>
-      <c r="AJ3" s="180"/>
-      <c r="AK3" s="180"/>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="182" t="s">
+      <c r="AH3" s="182"/>
+      <c r="AI3" s="182"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="180"/>
-      <c r="AO3" s="180"/>
-      <c r="AP3" s="180"/>
-      <c r="AQ3" s="180"/>
-      <c r="AR3" s="181"/>
-      <c r="AS3" s="179"/>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="180"/>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="179" t="s">
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="182"/>
+      <c r="AP3" s="182"/>
+      <c r="AQ3" s="182"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="181"/>
+      <c r="AT3" s="182"/>
+      <c r="AU3" s="182"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="182"/>
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="AZ3" s="180"/>
-      <c r="BA3" s="180"/>
-      <c r="BB3" s="180"/>
-      <c r="BC3" s="180"/>
-      <c r="BD3" s="181"/>
-      <c r="BE3" s="179" t="s">
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="182"/>
+      <c r="BB3" s="182"/>
+      <c r="BC3" s="182"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="BF3" s="180"/>
-      <c r="BG3" s="180"/>
-      <c r="BH3" s="180"/>
-      <c r="BI3" s="180"/>
-      <c r="BJ3" s="181"/>
-      <c r="BK3" s="179" t="s">
+      <c r="BF3" s="182"/>
+      <c r="BG3" s="182"/>
+      <c r="BH3" s="182"/>
+      <c r="BI3" s="182"/>
+      <c r="BJ3" s="183"/>
+      <c r="BK3" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="BL3" s="180"/>
-      <c r="BM3" s="180"/>
-      <c r="BN3" s="180"/>
-      <c r="BO3" s="180"/>
-      <c r="BP3" s="181"/>
+      <c r="BL3" s="182"/>
+      <c r="BM3" s="182"/>
+      <c r="BN3" s="182"/>
+      <c r="BO3" s="182"/>
+      <c r="BP3" s="183"/>
       <c r="BQ3" s="58"/>
     </row>
     <row r="4" spans="1:74" ht="13.5" thickBot="1">
@@ -9336,639 +10772,639 @@
     <mergeCell ref="U3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="AP23:AP76 F5:F76 L5:L76 R5:R76 X5:X76 AV5:AV76">
-    <cfRule type="cellIs" dxfId="203" priority="239" operator="equal">
+  <conditionalFormatting sqref="AP5:AP72">
+    <cfRule type="cellIs" dxfId="203" priority="205" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="240" operator="equal">
-      <formula>"Digital - Electronics"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="206" operator="equal">
+      <formula>"Digital"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="207" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="208" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="209" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="210" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="211" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="212" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="213" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="214" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="249" operator="equal">
-      <formula>"Beauty - Cosmetics"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="215" operator="equal">
+      <formula>"Beauty"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="216" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="217" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="218" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="220" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="255" operator="equal">
-      <formula>"Others"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP72">
-    <cfRule type="cellIs" dxfId="186" priority="205" operator="equal">
-      <formula>"Food"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="206" operator="equal">
-      <formula>"Digital"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="207" operator="equal">
-      <formula>"Home Appliance"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="208" operator="equal">
-      <formula>"Household"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="209" operator="equal">
-      <formula>"Home Textile"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="210" operator="equal">
-      <formula>"Health Equipment"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="211" operator="equal">
-      <formula>"Health Supplement"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="212" operator="equal">
-      <formula>"Sports"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="213" operator="equal">
-      <formula>"Kitchen Utensils"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="214" operator="equal">
-      <formula>"Kitchen Electronics"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="215" operator="equal">
-      <formula>"Beauty"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="216" operator="equal">
-      <formula>"Fashion"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="217" operator="equal">
-      <formula>"Accessory"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="218" operator="equal">
-      <formula>"Kid"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="219" operator="equal">
-      <formula>"Finance"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="220" operator="equal">
-      <formula>"Service"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="221" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP73:AP76">
-    <cfRule type="cellIs" dxfId="169" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="188" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="189" operator="equal">
       <formula>"Digital"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="190" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="191" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="192" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="193" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="194" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="195" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="196" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="197" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="198" operator="equal">
       <formula>"Beauty"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="199" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="200" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="201" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="202" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="203" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="204" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23:AJ76">
-    <cfRule type="cellIs" dxfId="152" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="171" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
       <formula>"Digital - Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="173" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="174" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="175" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="176" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="177" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="178" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="179" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="180" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="181" operator="equal">
       <formula>"Beauty - Cosmetics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="182" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="183" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="184" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="185" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ72">
-    <cfRule type="cellIs" dxfId="135" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="155" operator="equal">
       <formula>"Digital"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="157" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="158" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="159" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="161" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="162" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="163" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="164" operator="equal">
       <formula>"Beauty"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="165" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="166" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="167" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="168" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="170" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ73:AJ76">
-    <cfRule type="cellIs" dxfId="118" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
       <formula>"Digital"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="141" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="145" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="146" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="147" operator="equal">
       <formula>"Beauty"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="148" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="153" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD23:AD76">
-    <cfRule type="cellIs" dxfId="101" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
       <formula>"Digital - Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="124" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="126" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="127" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="128" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="129" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="130" operator="equal">
       <formula>"Beauty - Cosmetics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="132" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="133" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="134" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="135" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="136" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD72">
-    <cfRule type="cellIs" dxfId="84" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
       <formula>"Digital"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="109" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="110" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="111" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="112" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="113" operator="equal">
       <formula>"Beauty"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="117" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD73:AD76">
-    <cfRule type="cellIs" dxfId="67" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="87" operator="equal">
       <formula>"Digital"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="88" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="92" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="93" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="94" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="95" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="96" operator="equal">
       <formula>"Beauty"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="97" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="98" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="99" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="100" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="101" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="102" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN5:BN76">
-    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
       <formula>"Digital - Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="39" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="42" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="43" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
       <formula>"Beauty - Cosmetics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH76">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
       <formula>"Digital - Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>"Beauty - Cosmetics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BB76">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"Food"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Digital - Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"Home Appliance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"Household"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="equal">
       <formula>"Home Textile"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"Health Equipment"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Health Supplement"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"Sports"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"Kitchen Utensils"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Kitchen Electronics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>"Beauty - Cosmetics"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"Fashion"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"Accessory"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Kid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Finance"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"Service"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"Others"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP76 F5:F76 L5:L76 R5:R76 X5:X76 AV5:AV76 AD5:AD76 AJ5:AJ76 BB5:BB76 BH5:BH76 BN5:BN76">
+    <cfRule type="cellIs" dxfId="16" priority="239" operator="equal">
+      <formula>"Food"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="240" operator="equal">
+      <formula>"Digital - Electronics"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="241" operator="equal">
+      <formula>"Home Appliance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="242" operator="equal">
+      <formula>"Household"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="243" operator="equal">
+      <formula>"Home Textile"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="244" operator="equal">
+      <formula>"Health Equipment"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="245" operator="equal">
+      <formula>"Health Supplement"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="246" operator="equal">
+      <formula>"Sports"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="247" operator="equal">
+      <formula>"Kitchen Utensils"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="248" operator="equal">
+      <formula>"Kitchen Electronics"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="249" operator="equal">
+      <formula>"Beauty - Cosmetics"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="250" operator="equal">
+      <formula>"Fashion"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="251" operator="equal">
+      <formula>"Accessory"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="252" operator="equal">
+      <formula>"Kid"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="253" operator="equal">
+      <formula>"Finance"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="254" operator="equal">
+      <formula>"Service"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="255" operator="equal">
       <formula>"Others"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9985,7 +11421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
@@ -10018,10 +11454,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="183"/>
+      <c r="B1" s="185"/>
       <c r="C1" s="109"/>
       <c r="D1" s="107"/>
       <c r="E1" s="110"/>
@@ -10125,7 +11561,7 @@
       <c r="AD2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="184" t="s">
+      <c r="AE2" s="175" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11580,8 +13016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11601,140 +13037,140 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="185">
-        <v>1</v>
-      </c>
-      <c r="B2" s="185" t="s">
+      <c r="A2" s="176">
+        <v>1</v>
+      </c>
+      <c r="B2" s="176" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="172"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="185">
+      <c r="A3" s="176">
         <v>2</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="176" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="173"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="185">
+      <c r="A4" s="176">
         <v>3</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="176" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="185">
+      <c r="A5" s="176">
         <v>4</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="176" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="185">
+      <c r="A6" s="176">
         <v>5</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="176" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="185">
+      <c r="A7" s="176">
         <v>6</v>
       </c>
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="176" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="185">
+      <c r="A8" s="176">
         <v>7</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="176" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="185">
+      <c r="A9" s="176">
         <v>8</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="176" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="185">
+      <c r="A10" s="176">
         <v>9</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="176" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="185">
+      <c r="A11" s="176">
         <v>10</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="176" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="185">
+      <c r="A12" s="176">
         <v>11</v>
       </c>
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="176" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="185">
+      <c r="A13" s="176">
         <v>12</v>
       </c>
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="176" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="185">
+      <c r="A14" s="176">
         <v>13</v>
       </c>
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="176" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="185">
+      <c r="A15" s="176">
         <v>14</v>
       </c>
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="176" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="185">
+      <c r="A16" s="176">
         <v>15</v>
       </c>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="176" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="185">
+      <c r="A17" s="176">
         <v>16</v>
       </c>
-      <c r="B17" s="185" t="s">
+      <c r="B17" s="176" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="185">
+      <c r="A18" s="176">
         <v>17</v>
       </c>
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="176" t="s">
         <v>126</v>
       </c>
     </row>
